--- a/workflow-web/doc/dev/项目说明.xlsx
+++ b/workflow-web/doc/dev/项目说明.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="27135" windowHeight="13200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="eclipse导入项目方法" sheetId="1" r:id="rId1"/>
     <sheet name="maven模块说明" sheetId="2" r:id="rId2"/>
     <sheet name="web模块代码说明" sheetId="4" r:id="rId3"/>
     <sheet name="echart相关代码说明" sheetId="3" r:id="rId4"/>
+    <sheet name="eclipse打包" sheetId="5" r:id="rId5"/>
+    <sheet name="业务数据和工作流的表关系" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">eclipse导入项目方法!$AK$152</definedName>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>workflow-common：共用模块</t>
   </si>
@@ -431,6 +433,27 @@
   </si>
   <si>
     <t>已历史订单为例</t>
+  </si>
+  <si>
+    <t>base_execute_order</t>
+  </si>
+  <si>
+    <t>act_ru_execution</t>
+  </si>
+  <si>
+    <t>act_ru_task</t>
+  </si>
+  <si>
+    <t>act_ru_variable</t>
+  </si>
+  <si>
+    <t>process_instance_id</t>
+  </si>
+  <si>
+    <t>PROC_INST_ID_</t>
+  </si>
+  <si>
+    <t>EXECUTION_ID_</t>
   </si>
 </sst>
 </file>
@@ -438,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -469,6 +492,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -476,75 +507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,8 +521,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,10 +576,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,9 +612,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,79 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +672,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +708,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,25 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,36 +833,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -861,17 +854,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,16 +911,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,10 +941,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,133 +953,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3094,6 +3117,315 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect r="50449"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="685800"/>
+          <a:ext cx="18121630" cy="10285730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="1800225"/>
+          <a:ext cx="3143250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="6572250"/>
+          <a:ext cx="3238500" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="6696075"/>
+          <a:ext cx="3219450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="11315700"/>
+          <a:ext cx="6257290" cy="6685915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="11315700"/>
+          <a:ext cx="11914505" cy="8209280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3446,7 +3778,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BU4" sqref="BU4"/>
+      <selection activeCell="AX85" sqref="AX85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
@@ -3466,8 +3798,8 @@
   <sheetPr/>
   <dimension ref="AU9:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
@@ -4220,4 +4552,72 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D5:Y6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="16384" width="3.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:25">
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="4:25">
+      <c r="D6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>